--- a/src/test/testResources/simpleTests/noMeasures2.xlsx
+++ b/src/test/testResources/simpleTests/noMeasures2.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Кейс задание\простые тесты\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFFCEE5-F85C-4A20-9A98-9DBD8DF0554E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28545" yWindow="2220" windowWidth="27465" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28545" yWindow="2220" windowWidth="27465" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
     <sheet name="out" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,14 +347,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -428,41 +422,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6E570D-E134-42CF-89C5-50D73EF8E09C}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
